--- a/data/trans_orig/P15B-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P15B-Clase-trans_orig.xlsx
@@ -6391,7 +6391,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
@@ -14571,7 +14571,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
@@ -22751,7 +22751,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
@@ -30931,7 +30931,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
